--- a/Prodcom_calibration/data/Approximate_carbon_emissions.xlsx
+++ b/Prodcom_calibration/data/Approximate_carbon_emissions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregoiresempe/Library/CloudStorage/OneDrive-Personnel/APE 2 2022-2023/Semester 1/Labor economics/François Fontaine/Labor_reallocation_and_climate_change/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6823a0eab8e8367/APE 2 2022-2023/Semester 1/Labor economics/François Fontaine/Labor_reallocation_and_climate_change/Prodcom_calibration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E246E2-36C2-DE43-A05E-3B66BACA9F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C3E246E2-36C2-DE43-A05E-3B66BACA9F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B550F1A9-2CF8-9C40-BB82-77C99C3443B6}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="760" windowWidth="28420" windowHeight="18880" xr2:uid="{71F86D3D-A545-F642-93DE-3EE7E15D62DB}"/>
+    <workbookView xWindow="780" yWindow="760" windowWidth="28420" windowHeight="18880" activeTab="1" xr2:uid="{71F86D3D-A545-F642-93DE-3EE7E15D62DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,13 +164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2BC1A1-47CD-0944-8D3B-C71717BB213E}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -717,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E93CC-5E4A-BD49-8B3B-F0F97A214049}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,11 +738,14 @@
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B992A500-1445-8944-B51F-E0029AFD4AE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>